--- a/excel.xlsx
+++ b/excel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,44 +424,229 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2022-05-26T14:00:01+09:00</v>
+        <v>2022-05-26T20:42:54+09:00</v>
       </c>
       <c r="B2" t="str">
         <v>bid</v>
       </c>
       <c r="C2" t="str">
-        <v>5875.0</v>
+        <v>5415.0</v>
       </c>
       <c r="D2" t="str">
-        <v>99830.076</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0-2773.577</v>
+        <v>100000.000</v>
+      </c>
+      <c r="F2">
+        <v>-14277.904999999999</v>
       </c>
       <c r="G2">
-        <v>NaN</v>
+        <v>-142779.05</v>
+      </c>
+      <c r="H2">
+        <v>-6243.696</v>
+      </c>
+      <c r="I2">
+        <v>-62436.96</v>
+      </c>
+      <c r="J2">
+        <v>-8246.215</v>
+      </c>
+      <c r="K2">
+        <v>-82462.15</v>
+      </c>
+      <c r="L2">
+        <v>-10085.169</v>
+      </c>
+      <c r="M2">
+        <v>-100851.69</v>
+      </c>
+      <c r="N2">
+        <v>-12572.856</v>
+      </c>
+      <c r="O2">
+        <v>-125728.56</v>
+      </c>
+      <c r="P2">
+        <v>-14277.904999999999</v>
+      </c>
+      <c r="Q2">
+        <v>-142779.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2022-05-26T14:15:00+09:00</v>
+        <v>2022-05-26T20:45:00+09:00</v>
       </c>
       <c r="B3" t="str">
         <v>ask</v>
       </c>
       <c r="C3" t="str">
-        <v>5770.0</v>
+        <v>5390.0</v>
       </c>
       <c r="D3" t="str">
-        <v>98045.879</v>
+        <v>99538.319</v>
       </c>
       <c r="E3" t="str">
-        <v>-2773.577</v>
+        <v>-1459.373</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2022-05-26T20:45:08+09:00</v>
+      </c>
+      <c r="B4" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5390.0</v>
+      </c>
+      <c r="D4" t="str">
+        <v>100000.000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2022-05-26T22:16:18+09:00</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C5" t="str">
+        <v>5185.0</v>
+      </c>
+      <c r="D5" t="str">
+        <v>96196.660</v>
+      </c>
+      <c r="E5" t="str">
+        <v>-4784.323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2022-05-27T07:19:00+09:00</v>
+      </c>
+      <c r="B6" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5955.0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>100000.000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2022-05-27T07:22:39+09:00</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C7" t="str">
+        <v>5895.0</v>
+      </c>
+      <c r="D7" t="str">
+        <v>98992.443</v>
+      </c>
+      <c r="E7" t="str">
+        <v>-2002.519</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2022-05-27T07:30:47+09:00</v>
+      </c>
+      <c r="B8" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C8" t="str">
+        <v>5930.0</v>
+      </c>
+      <c r="D8" t="str">
+        <v>100000.000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2022-05-27T07:32:21+09:00</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C9" t="str">
+        <v>5880.0</v>
+      </c>
+      <c r="D9" t="str">
+        <v>99156.830</v>
+      </c>
+      <c r="E9" t="str">
+        <v>-1838.954</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2022-05-27T12:09:48+09:00</v>
+      </c>
+      <c r="B10" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C10" t="str">
+        <v>5685.0</v>
+      </c>
+      <c r="D10" t="str">
+        <v>100000.000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2022-05-27T14:45:04+09:00</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C11" t="str">
+        <v>5600.0</v>
+      </c>
+      <c r="D11" t="str">
+        <v>98504.837</v>
+      </c>
+      <c r="E11" t="str">
+        <v>-2487.687</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2022-05-27T16:15:01+09:00</v>
+      </c>
+      <c r="B12" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C12" t="str">
+        <v>5645.0</v>
+      </c>
+      <c r="D12" t="str">
+        <v>100000.000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2022-05-27T17:00:06+09:00</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C13" t="str">
+        <v>5605.0</v>
+      </c>
+      <c r="D13" t="str">
+        <v>99291.408</v>
+      </c>
+      <c r="E13" t="str">
+        <v>-1705.049</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q13"/>
   </ignoredErrors>
 </worksheet>
 </file>